--- a/Книга1.xlsx
+++ b/Книга1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-60" windowWidth="19440" windowHeight="14940" activeTab="9"/>
+    <workbookView xWindow="-120" yWindow="-60" windowWidth="19440" windowHeight="14940" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,8 @@
     <sheet name="Октябрь" sheetId="26" r:id="rId11"/>
     <sheet name="Ноябрь" sheetId="27" r:id="rId12"/>
     <sheet name="Декабрь" sheetId="28" r:id="rId13"/>
-    <sheet name="Лист4" sheetId="4" r:id="rId14"/>
+    <sheet name="Лист2" sheetId="29" r:id="rId14"/>
+    <sheet name="Лист4" sheetId="4" r:id="rId15"/>
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Лист1!$B$2:$B$316</definedName>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="83">
   <si>
     <t>x</t>
   </si>
@@ -251,6 +252,51 @@
   <si>
     <t>№
 п/п</t>
+  </si>
+  <si>
+    <t>y15</t>
+  </si>
+  <si>
+    <t>y14</t>
+  </si>
+  <si>
+    <t>y13</t>
+  </si>
+  <si>
+    <t>y12</t>
+  </si>
+  <si>
+    <t>у11</t>
+  </si>
+  <si>
+    <t>у10</t>
+  </si>
+  <si>
+    <t>у9</t>
+  </si>
+  <si>
+    <t>у8</t>
+  </si>
+  <si>
+    <t>у7</t>
+  </si>
+  <si>
+    <t>у6</t>
+  </si>
+  <si>
+    <t>у5</t>
+  </si>
+  <si>
+    <t>у4</t>
+  </si>
+  <si>
+    <t>у3</t>
+  </si>
+  <si>
+    <t>у2</t>
+  </si>
+  <si>
+    <t>y1</t>
   </si>
 </sst>
 </file>
@@ -523,36 +569,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
@@ -576,9 +600,6 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -586,9 +607,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
@@ -632,6 +650,34 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1699,11 +1745,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="77636096"/>
-        <c:axId val="99589440"/>
+        <c:axId val="74676224"/>
+        <c:axId val="44627584"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="77636096"/>
+        <c:axId val="74676224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1745,7 +1791,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="99589440"/>
+        <c:crossAx val="44627584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1753,7 +1799,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="99589440"/>
+        <c:axId val="44627584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1804,7 +1850,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77636096"/>
+        <c:crossAx val="74676224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1834,6 +1880,2813 @@
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
         <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="106"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="6"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:tint val="39000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent4">
+                  <a:tint val="39000"/>
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:tint val="39000"/>
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent4">
+                    <a:tint val="39000"/>
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист2!$A$2:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-6.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-5.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-5.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-4.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-2.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист2!$B$2:$B$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.17</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.94</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.34</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.47</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.76</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.02</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.45</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.52</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.76</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.94</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.94</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.76</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.52</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.45</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.02</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.76</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.47</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.34</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.94</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.17</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8881-4EF5-A3E0-A86977D8AF93}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:tint val="48000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent4">
+                  <a:tint val="48000"/>
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:tint val="48000"/>
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent4">
+                    <a:tint val="48000"/>
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист2!$A$2:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-6.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-5.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-5.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-4.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-2.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист2!$C$2:$C$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.7699999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.21</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.04</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.65</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.31</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.73</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.33</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.08</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.08</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.33</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.64</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.73</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.31</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.65</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.04</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.21</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.75</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.7699999999999996</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8881-4EF5-A3E0-A86977D8AF93}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:tint val="57000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent4">
+                  <a:tint val="57000"/>
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:tint val="57000"/>
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent4">
+                    <a:tint val="57000"/>
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист2!$A$2:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-6.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-5.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-5.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-4.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-2.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист2!$D$2:$D$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="1">
+                  <c:v>5.12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.57</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.92</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.81</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.92</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8881-4EF5-A3E0-A86977D8AF93}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:tint val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent4">
+                  <a:tint val="65000"/>
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:tint val="65000"/>
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent4">
+                    <a:tint val="65000"/>
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист2!$A$2:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-6.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-5.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-5.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-4.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-2.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист2!$E$2:$E$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="13">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.92</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10.25</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10.81</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10.25</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.92</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8.57</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-8881-4EF5-A3E0-A86977D8AF93}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:tint val="74000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent4">
+                  <a:tint val="74000"/>
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:tint val="74000"/>
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent4">
+                    <a:tint val="74000"/>
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист2!$A$2:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-6.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-5.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-5.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-4.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-2.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист2!$F$2:$F$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="2">
+                  <c:v>5.76</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.56</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.56</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-8881-4EF5-A3E0-A86977D8AF93}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:tint val="83000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent4">
+                  <a:tint val="83000"/>
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:tint val="83000"/>
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent4">
+                    <a:tint val="83000"/>
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист2!$A$2:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-6.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-5.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-5.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-4.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-2.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист2!$G$2:$G$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="14">
+                  <c:v>7.56</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.75</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.56</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.76</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-8881-4EF5-A3E0-A86977D8AF93}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:tint val="92000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent4">
+                  <a:tint val="92000"/>
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:tint val="92000"/>
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent4">
+                    <a:tint val="92000"/>
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист2!$A$2:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-6.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-5.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-5.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-4.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-2.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист2!$H$2:$H$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="6">
+                  <c:v>2.11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.52</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-3.22</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-4.5599999999999996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-4.5599999999999996</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-3.22</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-1.52</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-8881-4EF5-A3E0-A86977D8AF93}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent4">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист2!$A$2:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-6.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-5.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-5.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-4.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-2.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист2!$I$2:$I$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="3">
+                  <c:v>3.02</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.89</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-5.52</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-7.22</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-8.56</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-8.56</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-7.22</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-5.52</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-1.89</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.11</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.02</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-8881-4EF5-A3E0-A86977D8AF93}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:shade val="91000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent4">
+                  <a:shade val="91000"/>
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:shade val="91000"/>
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent4">
+                    <a:shade val="91000"/>
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист2!$A$2:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-6.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-5.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-5.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-4.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-2.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист2!$J$2:$J$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-6.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-6.49</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-6.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-6.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-6.14</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-6.06</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-8881-4EF5-A3E0-A86977D8AF93}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:shade val="82000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent4">
+                  <a:shade val="82000"/>
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:shade val="82000"/>
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent4">
+                    <a:shade val="82000"/>
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист2!$A$2:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-6.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-5.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-5.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-4.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-2.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист2!$K$2:$K$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="14">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-6.06</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-6.14</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-6.25</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-6.3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-6.49</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-6.9</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-8881-4EF5-A3E0-A86977D8AF93}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:shade val="73000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent4">
+                  <a:shade val="73000"/>
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:shade val="73000"/>
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent4">
+                    <a:shade val="73000"/>
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист2!$A$2:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-6.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-5.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-5.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-4.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-2.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист2!$L$2:$L$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-10.130000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-10.64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-10.84</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-10.89</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-10.97</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-10.89</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-10.84</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-10.56</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-9.2200000000000006</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-8881-4EF5-A3E0-A86977D8AF93}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:shade val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent4">
+                  <a:shade val="65000"/>
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:shade val="65000"/>
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent4">
+                    <a:shade val="65000"/>
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист2!$A$2:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-6.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-5.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-5.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-4.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-2.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист2!$M$2:$M$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="11">
+                  <c:v>-9.2200000000000006</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-10.56</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-10.84</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-10.89</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-11</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-10.97</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-10.89</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-10.84</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-10.64</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-10.130000000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-8881-4EF5-A3E0-A86977D8AF93}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="12"/>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:shade val="56000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent4">
+                  <a:shade val="56000"/>
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:shade val="56000"/>
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent4">
+                    <a:shade val="56000"/>
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист2!$A$2:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-6.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-5.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-5.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-4.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-2.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист2!$N$2:$N$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-3.24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-8881-4EF5-A3E0-A86977D8AF93}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="13"/>
+          <c:order val="13"/>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:shade val="47000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent4">
+                  <a:shade val="47000"/>
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:shade val="47000"/>
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent4">
+                    <a:shade val="47000"/>
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист2!$A$2:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-6.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-5.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-5.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-4.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-2.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист2!$O$2:$O$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="17">
+                  <c:v>-0.25</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.04</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.64</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-3.24</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000D-8881-4EF5-A3E0-A86977D8AF93}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="14"/>
+          <c:order val="14"/>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:shade val="38000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent4">
+                  <a:shade val="38000"/>
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:shade val="38000"/>
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent4">
+                    <a:shade val="38000"/>
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист2!$A$2:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-6.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-5.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-5.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-4.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-2.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист2!$P$2:$P$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.74</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.89</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.2200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.2200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.89</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.74</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000E-8881-4EF5-A3E0-A86977D8AF93}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="92453632"/>
+        <c:axId val="92454208"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="92453632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:noFill/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="92454208"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="92454208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="92453632"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -2436,11 +5289,54 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6E8DD23A-8B12-4C10-B8E7-A22719B82200}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E8DD23A-8B12-4C10-B8E7-A22719B82200}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>107071</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>189890</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4651E80E-86E1-4848-BFC5-50F3B14FB369}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -2712,7 +5608,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5581,7 +8477,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
@@ -5594,250 +8490,250 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="12"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="42"/>
       <c r="F1" s="10"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="E2" s="25" t="s">
         <v>41</v>
       </c>
       <c r="F2" s="10"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="34">
+      <c r="B3" s="23">
         <v>24</v>
       </c>
-      <c r="C3" s="34">
+      <c r="C3" s="23">
         <v>8</v>
       </c>
-      <c r="D3" s="34">
+      <c r="D3" s="23">
         <v>22</v>
       </c>
-      <c r="E3" s="32">
-        <f>B3*C3*D3</f>
+      <c r="E3" s="22">
+        <f t="shared" ref="E3:E13" si="0">B3*C3*D3</f>
         <v>4224</v>
       </c>
       <c r="F3" s="10"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="34">
+      <c r="B4" s="23">
         <v>16</v>
       </c>
-      <c r="C4" s="34">
+      <c r="C4" s="23">
         <v>7</v>
       </c>
-      <c r="D4" s="34">
+      <c r="D4" s="23">
         <v>18</v>
       </c>
-      <c r="E4" s="32">
-        <f>B4*C4*D4</f>
+      <c r="E4" s="22">
+        <f t="shared" si="0"/>
         <v>2016</v>
       </c>
       <c r="F4" s="10"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="34">
+      <c r="B5" s="23">
         <v>36</v>
       </c>
-      <c r="C5" s="34">
+      <c r="C5" s="23">
         <v>8</v>
       </c>
-      <c r="D5" s="34">
+      <c r="D5" s="23">
         <v>20</v>
       </c>
-      <c r="E5" s="32">
-        <f>B5*C5*D5</f>
+      <c r="E5" s="22">
+        <f t="shared" si="0"/>
         <v>5760</v>
       </c>
       <c r="F5" s="10"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="34">
+      <c r="B6" s="23">
         <v>20</v>
       </c>
-      <c r="C6" s="34">
+      <c r="C6" s="23">
         <v>6</v>
       </c>
-      <c r="D6" s="34">
+      <c r="D6" s="23">
         <v>19</v>
       </c>
-      <c r="E6" s="32">
-        <f>B6*C6*D6</f>
+      <c r="E6" s="22">
+        <f t="shared" si="0"/>
         <v>2280</v>
       </c>
       <c r="F6" s="10"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="34">
+      <c r="B7" s="23">
         <v>19</v>
       </c>
-      <c r="C7" s="34">
+      <c r="C7" s="23">
         <v>7</v>
       </c>
-      <c r="D7" s="34">
+      <c r="D7" s="23">
         <v>21</v>
       </c>
-      <c r="E7" s="32">
-        <f>B7*C7*D7</f>
+      <c r="E7" s="22">
+        <f t="shared" si="0"/>
         <v>2793</v>
       </c>
       <c r="F7" s="10"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="34">
+      <c r="B8" s="23">
         <v>34</v>
       </c>
-      <c r="C8" s="34">
+      <c r="C8" s="23">
         <v>6</v>
       </c>
-      <c r="D8" s="34">
+      <c r="D8" s="23">
         <v>22</v>
       </c>
-      <c r="E8" s="32">
-        <f>B8*C8*D8</f>
+      <c r="E8" s="22">
+        <f t="shared" si="0"/>
         <v>4488</v>
       </c>
       <c r="F8" s="10"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="34">
+      <c r="B9" s="23">
         <v>30</v>
       </c>
-      <c r="C9" s="34">
+      <c r="C9" s="23">
         <v>7</v>
       </c>
-      <c r="D9" s="34">
+      <c r="D9" s="23">
         <v>20</v>
       </c>
-      <c r="E9" s="32">
-        <f>B9*C9*D9</f>
+      <c r="E9" s="22">
+        <f t="shared" si="0"/>
         <v>4200</v>
       </c>
       <c r="F9" s="10"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="34">
+      <c r="B10" s="23">
         <v>25</v>
       </c>
-      <c r="C10" s="34">
+      <c r="C10" s="23">
         <v>8</v>
       </c>
-      <c r="D10" s="34">
+      <c r="D10" s="23">
         <v>19</v>
       </c>
-      <c r="E10" s="32">
-        <f>B10*C10*D10</f>
+      <c r="E10" s="22">
+        <f t="shared" si="0"/>
         <v>3800</v>
       </c>
       <c r="F10" s="10"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="35" t="s">
+      <c r="A11" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="34">
+      <c r="B11" s="23">
         <v>31</v>
       </c>
-      <c r="C11" s="34">
+      <c r="C11" s="23">
         <v>8</v>
       </c>
-      <c r="D11" s="34">
+      <c r="D11" s="23">
         <v>22</v>
       </c>
-      <c r="E11" s="32">
-        <f>B11*C11*D11</f>
+      <c r="E11" s="22">
+        <f t="shared" si="0"/>
         <v>5456</v>
       </c>
       <c r="F11" s="10"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="35" t="s">
+      <c r="A12" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="34">
+      <c r="B12" s="23">
         <v>33</v>
       </c>
-      <c r="C12" s="34">
+      <c r="C12" s="23">
         <v>7</v>
       </c>
-      <c r="D12" s="34">
+      <c r="D12" s="23">
         <v>21</v>
       </c>
-      <c r="E12" s="32">
-        <f>B12*C12*D12</f>
+      <c r="E12" s="22">
+        <f t="shared" si="0"/>
         <v>4851</v>
       </c>
       <c r="F12" s="10"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="35" t="s">
+      <c r="A13" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="34">
+      <c r="B13" s="23">
         <v>15</v>
       </c>
-      <c r="C13" s="34">
+      <c r="C13" s="23">
         <v>6</v>
       </c>
-      <c r="D13" s="34">
+      <c r="D13" s="23">
         <v>19</v>
       </c>
-      <c r="E13" s="32">
-        <f>B13*C13*D13</f>
+      <c r="E13" s="22">
+        <f t="shared" si="0"/>
         <v>1710</v>
       </c>
       <c r="F13" s="10"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="33" t="s">
+      <c r="A14" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="32">
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="22">
         <f>SUM(E3:E13)</f>
         <v>41578</v>
       </c>
@@ -6875,15 +9771,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="38"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="26"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="29" t="s">
         <v>53</v>
       </c>
       <c r="B2" s="11" t="s">
@@ -6892,127 +9788,127 @@
       <c r="C2" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="38"/>
+      <c r="D2" s="26"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="40">
+      <c r="B3" s="28">
         <v>178684</v>
       </c>
-      <c r="C3" s="40">
+      <c r="C3" s="28">
         <v>11022</v>
       </c>
-      <c r="D3" s="38"/>
+      <c r="D3" s="26"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="40">
+      <c r="B4" s="28">
         <v>91655</v>
       </c>
-      <c r="C4" s="40">
+      <c r="C4" s="28">
         <v>8742</v>
       </c>
-      <c r="D4" s="38"/>
+      <c r="D4" s="26"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="40">
+      <c r="B5" s="28">
         <v>76174</v>
       </c>
-      <c r="C5" s="40">
+      <c r="C5" s="28">
         <v>7729</v>
       </c>
-      <c r="D5" s="38"/>
+      <c r="D5" s="26"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="40">
+      <c r="B6" s="28">
         <v>14756</v>
       </c>
-      <c r="C6" s="40">
+      <c r="C6" s="28">
         <v>5527</v>
       </c>
-      <c r="D6" s="38"/>
+      <c r="D6" s="26"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="39"/>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="38"/>
+      <c r="A7" s="27"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="26"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="38"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
+      <c r="A8" s="26"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="38"/>
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
+      <c r="A9" s="26"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="38"/>
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
+      <c r="A10" s="26"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="38"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
+      <c r="A11" s="26"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="38"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
+      <c r="A12" s="26"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="38"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
+      <c r="A13" s="26"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="38"/>
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
+      <c r="A14" s="26"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="38"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
+      <c r="A15" s="26"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="38"/>
-      <c r="B16" s="38"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
+      <c r="A16" s="26"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="38"/>
-      <c r="B17" s="38"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
+      <c r="A17" s="26"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="38"/>
-      <c r="B18" s="38"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
+      <c r="A18" s="26"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
     </row>
     <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8019,88 +10915,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
       <c r="E1" s="6"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="43" t="str">
+      <c r="B2" s="31" t="str">
         <f>DOLLAR(5000,0)</f>
         <v>5 000р.</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="44">
+      <c r="B3" s="32">
         <v>5.5E-2</v>
       </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
       <c r="E3" s="6"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="42">
+      <c r="B4" s="30">
         <f>B2*B3</f>
         <v>275</v>
       </c>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
       <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="39"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
+      <c r="A5" s="27"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
       <c r="E5" s="6"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="39"/>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
+      <c r="A6" s="27"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
       <c r="E6" s="6"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="39"/>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
+      <c r="A7" s="27"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
       <c r="E7" s="6"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="39"/>
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
+      <c r="A8" s="27"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
       <c r="E8" s="6"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="38"/>
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
+      <c r="A9" s="26"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="38"/>
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
+      <c r="A10" s="26"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9109,169 +12005,169 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="50" t="s">
+      <c r="D1" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="50" t="s">
+      <c r="E1" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="50" t="s">
+      <c r="F1" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="50" t="s">
+      <c r="G1" s="38" t="s">
         <v>65</v>
       </c>
       <c r="H1" s="6"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="49">
+      <c r="A2" s="37">
         <v>1</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="45">
+      <c r="C2" s="33">
         <v>5</v>
       </c>
-      <c r="D2" s="47">
+      <c r="D2" s="35">
         <v>4</v>
       </c>
-      <c r="E2" s="45">
+      <c r="E2" s="33">
         <v>5</v>
       </c>
-      <c r="F2" s="45">
+      <c r="F2" s="33">
         <v>5</v>
       </c>
-      <c r="G2" s="47">
+      <c r="G2" s="35">
         <v>4</v>
       </c>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="49">
+      <c r="A3" s="37">
         <v>2</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="47">
+      <c r="C3" s="35">
         <v>4</v>
       </c>
-      <c r="D3" s="45">
+      <c r="D3" s="33">
         <v>5</v>
       </c>
-      <c r="E3" s="45">
+      <c r="E3" s="33">
         <v>5</v>
       </c>
-      <c r="F3" s="46">
+      <c r="F3" s="34">
         <v>3</v>
       </c>
-      <c r="G3" s="45">
+      <c r="G3" s="33">
         <v>5</v>
       </c>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="49">
+      <c r="A4" s="37">
         <v>3</v>
       </c>
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="45">
+      <c r="C4" s="33">
         <v>5</v>
       </c>
-      <c r="D4" s="45">
+      <c r="D4" s="33">
         <v>5</v>
       </c>
-      <c r="E4" s="45">
+      <c r="E4" s="33">
         <v>5</v>
       </c>
-      <c r="F4" s="45">
+      <c r="F4" s="33">
         <v>5</v>
       </c>
-      <c r="G4" s="47">
+      <c r="G4" s="35">
         <v>4</v>
       </c>
       <c r="H4" s="6"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="49">
+      <c r="A5" s="37">
         <v>4</v>
       </c>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="C5" s="47">
+      <c r="C5" s="35">
         <v>4</v>
       </c>
-      <c r="D5" s="45">
+      <c r="D5" s="33">
         <v>5</v>
       </c>
-      <c r="E5" s="47">
+      <c r="E5" s="35">
         <v>4</v>
       </c>
-      <c r="F5" s="47">
+      <c r="F5" s="35">
         <v>4</v>
       </c>
-      <c r="G5" s="49">
+      <c r="G5" s="37">
         <v>3</v>
       </c>
       <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="49">
+      <c r="A6" s="37">
         <v>5</v>
       </c>
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="C6" s="46">
+      <c r="C6" s="34">
         <v>3</v>
       </c>
-      <c r="D6" s="46">
+      <c r="D6" s="34">
         <v>3</v>
       </c>
-      <c r="E6" s="45">
+      <c r="E6" s="33">
         <v>5</v>
       </c>
-      <c r="F6" s="45">
+      <c r="F6" s="33">
         <v>5</v>
       </c>
-      <c r="G6" s="46">
+      <c r="G6" s="34">
         <v>3</v>
       </c>
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="49">
+      <c r="A7" s="37">
         <v>6</v>
       </c>
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="C7" s="47">
+      <c r="C7" s="35">
         <v>4</v>
       </c>
-      <c r="D7" s="47">
+      <c r="D7" s="35">
         <v>4</v>
       </c>
-      <c r="E7" s="45">
+      <c r="E7" s="33">
         <v>5</v>
       </c>
-      <c r="F7" s="46">
+      <c r="F7" s="34">
         <v>3</v>
       </c>
-      <c r="G7" s="45">
+      <c r="G7" s="33">
         <v>5</v>
       </c>
       <c r="H7" s="6"/>
@@ -10571,6 +13467,863 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L1" t="s">
+        <v>72</v>
+      </c>
+      <c r="M1" t="s">
+        <v>71</v>
+      </c>
+      <c r="N1" t="s">
+        <v>70</v>
+      </c>
+      <c r="O1" t="s">
+        <v>69</v>
+      </c>
+      <c r="P1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>-7</v>
+      </c>
+      <c r="B2">
+        <f>ROUND((-3/49)*POWER(A2,2) + 8, 2)</f>
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <f>ROUND(4/49 * POWER(A2,2) + 1,2)</f>
+        <v>5</v>
+      </c>
+      <c r="J2">
+        <f>ROUND(-1/16 * POWER(A2+3,2)-6,2)</f>
+        <v>-7</v>
+      </c>
+      <c r="L2">
+        <f>ROUND(1/9 * POWER(A2 + 4,2) - 11,2)</f>
+        <v>-10</v>
+      </c>
+      <c r="N2">
+        <f>ROUND(-POWER(A2 + 5,2),2)</f>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>-6.8</v>
+      </c>
+      <c r="B3">
+        <f>ROUND((-3/49)*POWER(A3,2) + 8, 2)</f>
+        <v>5.17</v>
+      </c>
+      <c r="C3">
+        <f>ROUND(4/49 * POWER(A3,2) + 1,2)</f>
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="D3">
+        <f>ROUND((-0.75*POWER(A3+4,2))+11,2)</f>
+        <v>5.12</v>
+      </c>
+      <c r="J3">
+        <f>ROUND(-1/16 * POWER(A3+3,2)-6,2)</f>
+        <v>-6.9</v>
+      </c>
+      <c r="L3">
+        <f>ROUND(1/9 * POWER(A3 + 4,2) - 11,2)</f>
+        <v>-10.130000000000001</v>
+      </c>
+      <c r="N3">
+        <f>ROUND(-POWER(A3 + 5,2),2)</f>
+        <v>-3.24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>-5.8</v>
+      </c>
+      <c r="B4">
+        <f>ROUND((-3/49)*POWER(A4,2) + 8, 2)</f>
+        <v>5.94</v>
+      </c>
+      <c r="C4">
+        <f>ROUND(4/49 * POWER(A4,2) + 1,2)</f>
+        <v>3.75</v>
+      </c>
+      <c r="D4">
+        <f>ROUND((-0.75*POWER(A4+4,2))+11,2)</f>
+        <v>8.57</v>
+      </c>
+      <c r="F4">
+        <f>ROUND(-(POWER(A4+4,2))+9,2)</f>
+        <v>5.76</v>
+      </c>
+      <c r="J4">
+        <f>ROUND(-1/16 * POWER(A4+3,2)-6,2)</f>
+        <v>-6.49</v>
+      </c>
+      <c r="L4">
+        <f>ROUND(1/9 * POWER(A4 + 4,2) - 11,2)</f>
+        <v>-10.64</v>
+      </c>
+      <c r="N4">
+        <f>ROUND(-POWER(A4 + 5,2),2)</f>
+        <v>-0.64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>-5.2</v>
+      </c>
+      <c r="B5">
+        <f>ROUND((-3/49)*POWER(A5,2) + 8, 2)</f>
+        <v>6.34</v>
+      </c>
+      <c r="C5">
+        <f>ROUND(4/49 * POWER(A5,2) + 1,2)</f>
+        <v>3.21</v>
+      </c>
+      <c r="D5">
+        <f>ROUND((-0.75*POWER(A5+4,2))+11,2)</f>
+        <v>9.92</v>
+      </c>
+      <c r="F5">
+        <f>ROUND(-(POWER(A5+4,2))+9,2)</f>
+        <v>7.56</v>
+      </c>
+      <c r="I5">
+        <f>ROUND(4/9 *POWER(A5,2) - 9,2)</f>
+        <v>3.02</v>
+      </c>
+      <c r="J5">
+        <f>ROUND(-1/16 * POWER(A5+3,2)-6,2)</f>
+        <v>-6.3</v>
+      </c>
+      <c r="L5">
+        <f>ROUND(1/9 * POWER(A5 + 4,2) - 11,2)</f>
+        <v>-10.84</v>
+      </c>
+      <c r="N5">
+        <f>ROUND(-POWER(A5 + 5,2),2)</f>
+        <v>-0.04</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>-5</v>
+      </c>
+      <c r="B6">
+        <f>ROUND((-3/49)*POWER(A6,2) + 8, 2)</f>
+        <v>6.47</v>
+      </c>
+      <c r="C6">
+        <f>ROUND(4/49 * POWER(A6,2) + 1,2)</f>
+        <v>3.04</v>
+      </c>
+      <c r="D6">
+        <f>ROUND((-0.75*POWER(A6+4,2))+11,2)</f>
+        <v>10.25</v>
+      </c>
+      <c r="F6">
+        <f>ROUND(-(POWER(A6+4,2))+9,2)</f>
+        <v>8</v>
+      </c>
+      <c r="I6">
+        <f>ROUND(4/9 *POWER(A6,2) - 9,2)</f>
+        <v>2.11</v>
+      </c>
+      <c r="J6">
+        <f>ROUND(-1/16 * POWER(A6+3,2)-6,2)</f>
+        <v>-6.25</v>
+      </c>
+      <c r="L6">
+        <f>ROUND(1/9 * POWER(A6 + 4,2) - 11,2)</f>
+        <v>-10.89</v>
+      </c>
+      <c r="N6">
+        <f>ROUND(-POWER(A6 + 5,2),2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>-4.5</v>
+      </c>
+      <c r="B7">
+        <f>ROUND((-3/49)*POWER(A7,2) + 8, 2)</f>
+        <v>6.76</v>
+      </c>
+      <c r="C7">
+        <f>ROUND(4/49 * POWER(A7,2) + 1,2)</f>
+        <v>2.65</v>
+      </c>
+      <c r="D7">
+        <f>ROUND((-0.75*POWER(A7+4,2))+11,2)</f>
+        <v>10.81</v>
+      </c>
+      <c r="F7">
+        <f>ROUND(-(POWER(A7+4,2))+9,2)</f>
+        <v>8.75</v>
+      </c>
+      <c r="I7">
+        <f>ROUND(4/9 *POWER(A7,2) - 9,2)</f>
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <f>ROUND(-1/16 * POWER(A7+3,2)-6,2)</f>
+        <v>-6.14</v>
+      </c>
+      <c r="L7">
+        <f>ROUND(1/9 * POWER(A7 + 4,2) - 11,2)</f>
+        <v>-10.97</v>
+      </c>
+      <c r="N7">
+        <f>ROUND(-POWER(A7 + 5,2),2)</f>
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>-4</v>
+      </c>
+      <c r="B8">
+        <f>ROUND((-3/49)*POWER(A8,2) + 8, 2)</f>
+        <v>7.02</v>
+      </c>
+      <c r="C8">
+        <f>ROUND(4/49 * POWER(A8,2) + 1,2)</f>
+        <v>2.31</v>
+      </c>
+      <c r="D8">
+        <f>ROUND((-0.75*POWER(A8+4,2))+11,2)</f>
+        <v>11</v>
+      </c>
+      <c r="F8">
+        <f>ROUND(-(POWER(A8+4,2))+9,2)</f>
+        <v>9</v>
+      </c>
+      <c r="H8">
+        <f>ROUND(4/9 *POWER(A8,2) - 5,2)</f>
+        <v>2.11</v>
+      </c>
+      <c r="I8">
+        <f>ROUND(4/9 *POWER(A8,2) - 9,2)</f>
+        <v>-1.89</v>
+      </c>
+      <c r="J8">
+        <f>ROUND(-1/16 * POWER(A8+3,2)-6,2)</f>
+        <v>-6.06</v>
+      </c>
+      <c r="L8">
+        <f>ROUND(1/9 * POWER(A8 + 4,2) - 11,2)</f>
+        <v>-11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>-3</v>
+      </c>
+      <c r="B9">
+        <f>ROUND((-3/49)*POWER(A9,2) + 8, 2)</f>
+        <v>7.45</v>
+      </c>
+      <c r="C9">
+        <f>ROUND(4/49 * POWER(A9,2) + 1,2)</f>
+        <v>1.73</v>
+      </c>
+      <c r="D9">
+        <f>ROUND((-0.75*POWER(A9+4,2))+11,2)</f>
+        <v>10.25</v>
+      </c>
+      <c r="F9">
+        <f>ROUND(-(POWER(A9+4,2))+9,2)</f>
+        <v>8</v>
+      </c>
+      <c r="H9">
+        <f>ROUND(4/9 *POWER(A9,2) - 5,2)</f>
+        <v>-1</v>
+      </c>
+      <c r="I9">
+        <f>ROUND(4/9 *POWER(A9,2) - 9,2)</f>
+        <v>-5</v>
+      </c>
+      <c r="J9">
+        <f>ROUND(-1/16 * POWER(A9+3,2)-6,2)</f>
+        <v>-6</v>
+      </c>
+      <c r="L9">
+        <f>ROUND(1/9 * POWER(A9 + 4,2) - 11,2)</f>
+        <v>-10.89</v>
+      </c>
+      <c r="P9">
+        <f>ROUND(2/9 * POWER(A9,2)+2,2)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>-2.8</v>
+      </c>
+      <c r="B10">
+        <f>ROUND((-3/49)*POWER(A10,2) + 8, 2)</f>
+        <v>7.52</v>
+      </c>
+      <c r="C10">
+        <f>ROUND(4/49 * POWER(A10,2) + 1,2)</f>
+        <v>1.64</v>
+      </c>
+      <c r="D10">
+        <f>ROUND((-0.75*POWER(A10+4,2))+11,2)</f>
+        <v>9.92</v>
+      </c>
+      <c r="F10">
+        <f>ROUND(-(POWER(A10+4,2))+9,2)</f>
+        <v>7.56</v>
+      </c>
+      <c r="H10">
+        <f>ROUND(4/9 *POWER(A10,2) - 5,2)</f>
+        <v>-1.52</v>
+      </c>
+      <c r="I10">
+        <f>ROUND(4/9 *POWER(A10,2) - 9,2)</f>
+        <v>-5.52</v>
+      </c>
+      <c r="J10">
+        <f>ROUND(-1/16 * POWER(A10+3,2)-6,2)</f>
+        <v>-6</v>
+      </c>
+      <c r="L10">
+        <f>ROUND(1/9 * POWER(A10 + 4,2) - 11,2)</f>
+        <v>-10.84</v>
+      </c>
+      <c r="P10">
+        <f>ROUND(2/9 * POWER(A10,2)+2,2)</f>
+        <v>3.74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>-2</v>
+      </c>
+      <c r="B11">
+        <f>ROUND((-3/49)*POWER(A11,2) + 8, 2)</f>
+        <v>7.76</v>
+      </c>
+      <c r="C11">
+        <f>ROUND(4/49 * POWER(A11,2) + 1,2)</f>
+        <v>1.33</v>
+      </c>
+      <c r="D11">
+        <f>ROUND((-0.75*POWER(A11+4,2))+11,2)</f>
+        <v>8</v>
+      </c>
+      <c r="H11">
+        <f>ROUND(4/9 *POWER(A11,2) - 5,2)</f>
+        <v>-3.22</v>
+      </c>
+      <c r="I11">
+        <f>ROUND(4/9 *POWER(A11,2) - 9,2)</f>
+        <v>-7.22</v>
+      </c>
+      <c r="L11">
+        <f>ROUND(1/9 * POWER(A11 + 4,2) - 11,2)</f>
+        <v>-10.56</v>
+      </c>
+      <c r="P11">
+        <f>ROUND(2/9 * POWER(A11,2)+2,2)</f>
+        <v>2.89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>-1</v>
+      </c>
+      <c r="B12">
+        <f>ROUND((-3/49)*POWER(A12,2) + 8, 2)</f>
+        <v>7.94</v>
+      </c>
+      <c r="C12">
+        <f>ROUND(4/49 * POWER(A12,2) + 1,2)</f>
+        <v>1.08</v>
+      </c>
+      <c r="H12">
+        <f>ROUND(4/9 *POWER(A12,2) - 5,2)</f>
+        <v>-4.5599999999999996</v>
+      </c>
+      <c r="I12">
+        <f>ROUND(4/9 *POWER(A12,2) - 9,2)</f>
+        <v>-8.56</v>
+      </c>
+      <c r="L12">
+        <f>ROUND(1/9 * POWER(A12 + 4,2) - 11,2)</f>
+        <v>-10</v>
+      </c>
+      <c r="P12">
+        <f>ROUND(2/9 * POWER(A12,2)+2,2)</f>
+        <v>2.2200000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <f>ROUND((-3/49)*POWER(A13,2) + 8, 2)</f>
+        <v>8</v>
+      </c>
+      <c r="C13">
+        <f>ROUND(4/49 * POWER(A13,2) + 1,2)</f>
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <f>ROUND(4/9 *POWER(A13,2) - 5,2)</f>
+        <v>-5</v>
+      </c>
+      <c r="I13">
+        <f>ROUND(4/9 *POWER(A13,2) - 9,2)</f>
+        <v>-9</v>
+      </c>
+      <c r="L13">
+        <f>ROUND(1/9 * POWER(A13 + 4,2) - 11,2)</f>
+        <v>-9.2200000000000006</v>
+      </c>
+      <c r="M13">
+        <f>ROUND(1/9 * POWER(A13 - 4,2) - 11,2)</f>
+        <v>-9.2200000000000006</v>
+      </c>
+      <c r="P13">
+        <f>ROUND(2/9 * POWER(A13,2)+2,2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <f>ROUND((-3/49)*POWER(A14,2) + 8, 2)</f>
+        <v>7.94</v>
+      </c>
+      <c r="C14">
+        <f>ROUND(4/49 * POWER(A14,2) + 1,2)</f>
+        <v>1.08</v>
+      </c>
+      <c r="H14">
+        <f>ROUND(4/9 *POWER(A14,2) - 5,2)</f>
+        <v>-4.5599999999999996</v>
+      </c>
+      <c r="I14">
+        <f>ROUND(4/9 *POWER(A14,2) - 9,2)</f>
+        <v>-8.56</v>
+      </c>
+      <c r="M14">
+        <f>ROUND(1/9 * POWER(A14 - 4,2) - 11,2)</f>
+        <v>-10</v>
+      </c>
+      <c r="P14">
+        <f>ROUND(2/9 * POWER(A14,2)+2,2)</f>
+        <v>2.2200000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <f>ROUND((-3/49)*POWER(A15,2) + 8, 2)</f>
+        <v>7.76</v>
+      </c>
+      <c r="C15">
+        <f>ROUND(4/49 * POWER(A15,2) + 1,2)</f>
+        <v>1.33</v>
+      </c>
+      <c r="E15">
+        <f>ROUND((-0.75*POWER(A15-4,2)+11),2)</f>
+        <v>8</v>
+      </c>
+      <c r="H15">
+        <f>ROUND(4/9 *POWER(A15,2) - 5,2)</f>
+        <v>-3.22</v>
+      </c>
+      <c r="I15">
+        <f>ROUND(4/9 *POWER(A15,2) - 9,2)</f>
+        <v>-7.22</v>
+      </c>
+      <c r="M15">
+        <f>ROUND(1/9 * POWER(A15 - 4,2) - 11,2)</f>
+        <v>-10.56</v>
+      </c>
+      <c r="P15">
+        <f>ROUND(2/9 * POWER(A15,2)+2,2)</f>
+        <v>2.89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2.8</v>
+      </c>
+      <c r="B16">
+        <f>ROUND((-3/49)*POWER(A16,2) + 8, 2)</f>
+        <v>7.52</v>
+      </c>
+      <c r="C16">
+        <f>ROUND(4/49 * POWER(A16,2) + 1,2)</f>
+        <v>1.64</v>
+      </c>
+      <c r="E16">
+        <f>ROUND((-0.75*POWER(A16-4,2)+11),2)</f>
+        <v>9.92</v>
+      </c>
+      <c r="G16">
+        <f>ROUND(-(POWER(A16-4,2))+9,2)</f>
+        <v>7.56</v>
+      </c>
+      <c r="H16">
+        <f>ROUND(4/9 *POWER(A16,2) - 5,2)</f>
+        <v>-1.52</v>
+      </c>
+      <c r="I16">
+        <f>ROUND(4/9 *POWER(A16,2) - 9,2)</f>
+        <v>-5.52</v>
+      </c>
+      <c r="K16">
+        <f>ROUND(-1/16 * POWER(A16-3,2)-6,2)</f>
+        <v>-6</v>
+      </c>
+      <c r="M16">
+        <f>ROUND(1/9 * POWER(A16 - 4,2) - 11,2)</f>
+        <v>-10.84</v>
+      </c>
+      <c r="P16">
+        <f>ROUND(2/9 * POWER(A16,2)+2,2)</f>
+        <v>3.74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17">
+        <f>ROUND((-3/49)*POWER(A17,2) + 8, 2)</f>
+        <v>7.45</v>
+      </c>
+      <c r="C17">
+        <f>ROUND(4/49 * POWER(A17,2) + 1,2)</f>
+        <v>1.73</v>
+      </c>
+      <c r="E17">
+        <f>ROUND((-0.75*POWER(A17-4,2)+11),2)</f>
+        <v>10.25</v>
+      </c>
+      <c r="G17">
+        <f>ROUND(-(POWER(A17-4,2))+9,2)</f>
+        <v>8</v>
+      </c>
+      <c r="H17">
+        <f>ROUND(4/9 *POWER(A17,2) - 5,2)</f>
+        <v>-1</v>
+      </c>
+      <c r="I17">
+        <f>ROUND(4/9 *POWER(A17,2) - 9,2)</f>
+        <v>-5</v>
+      </c>
+      <c r="K17">
+        <f>ROUND(-1/16 * POWER(A17-3,2)-6,2)</f>
+        <v>-6</v>
+      </c>
+      <c r="M17">
+        <f>ROUND(1/9 * POWER(A17 - 4,2) - 11,2)</f>
+        <v>-10.89</v>
+      </c>
+      <c r="P17">
+        <f>ROUND(2/9 * POWER(A17,2)+2,2)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>4</v>
+      </c>
+      <c r="B18">
+        <f>ROUND((-3/49)*POWER(A18,2) + 8, 2)</f>
+        <v>7.02</v>
+      </c>
+      <c r="C18">
+        <f>ROUND(4/49 * POWER(A18,2) + 1,2)</f>
+        <v>2.31</v>
+      </c>
+      <c r="E18">
+        <f>ROUND((-0.75*POWER(A18-4,2)+11),2)</f>
+        <v>11</v>
+      </c>
+      <c r="G18">
+        <f>ROUND(-(POWER(A18-4,2))+9,2)</f>
+        <v>9</v>
+      </c>
+      <c r="H18">
+        <f>ROUND(4/9 *POWER(A18,2) - 5,2)</f>
+        <v>2.11</v>
+      </c>
+      <c r="I18">
+        <f>ROUND(4/9 *POWER(A18,2) - 9,2)</f>
+        <v>-1.89</v>
+      </c>
+      <c r="K18">
+        <f>ROUND(-1/16 * POWER(A18-3,2)-6,2)</f>
+        <v>-6.06</v>
+      </c>
+      <c r="M18">
+        <f>ROUND(1/9 * POWER(A18 - 4,2) - 11,2)</f>
+        <v>-11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>4.5</v>
+      </c>
+      <c r="B19">
+        <f>ROUND((-3/49)*POWER(A19,2) + 8, 2)</f>
+        <v>6.76</v>
+      </c>
+      <c r="C19">
+        <f>ROUND(4/49 * POWER(A19,2) + 1,2)</f>
+        <v>2.65</v>
+      </c>
+      <c r="E19">
+        <f>ROUND((-0.75*POWER(A19-4,2)+11),2)</f>
+        <v>10.81</v>
+      </c>
+      <c r="G19">
+        <f>ROUND(-(POWER(A19-4,2))+9,2)</f>
+        <v>8.75</v>
+      </c>
+      <c r="I19">
+        <f>ROUND(4/9 *POWER(A19,2) - 9,2)</f>
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <f>ROUND(-1/16 * POWER(A19-3,2)-6,2)</f>
+        <v>-6.14</v>
+      </c>
+      <c r="M19">
+        <f>ROUND(1/9 * POWER(A19 - 4,2) - 11,2)</f>
+        <v>-10.97</v>
+      </c>
+      <c r="O19">
+        <f>ROUND(-POWER(A19 - 5,2),2)</f>
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>5</v>
+      </c>
+      <c r="B20">
+        <f>ROUND((-3/49)*POWER(A20,2) + 8, 2)</f>
+        <v>6.47</v>
+      </c>
+      <c r="C20">
+        <f>ROUND(4/49 * POWER(A20,2) + 1,2)</f>
+        <v>3.04</v>
+      </c>
+      <c r="E20">
+        <f>ROUND((-0.75*POWER(A20-4,2)+11),2)</f>
+        <v>10.25</v>
+      </c>
+      <c r="G20">
+        <f>ROUND(-(POWER(A20-4,2))+9,2)</f>
+        <v>8</v>
+      </c>
+      <c r="I20">
+        <f>ROUND(4/9 *POWER(A20,2) - 9,2)</f>
+        <v>2.11</v>
+      </c>
+      <c r="K20">
+        <f>ROUND(-1/16 * POWER(A20-3,2)-6,2)</f>
+        <v>-6.25</v>
+      </c>
+      <c r="M20">
+        <f>ROUND(1/9 * POWER(A20 - 4,2) - 11,2)</f>
+        <v>-10.89</v>
+      </c>
+      <c r="O20">
+        <f>ROUND(-POWER(A20 - 5,2),2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>5.2</v>
+      </c>
+      <c r="B21">
+        <f>ROUND((-3/49)*POWER(A21,2) + 8, 2)</f>
+        <v>6.34</v>
+      </c>
+      <c r="C21">
+        <f>ROUND(4/49 * POWER(A21,2) + 1,2)</f>
+        <v>3.21</v>
+      </c>
+      <c r="E21">
+        <f>ROUND((-0.75*POWER(A21-4,2)+11),2)</f>
+        <v>9.92</v>
+      </c>
+      <c r="G21">
+        <f>ROUND(-(POWER(A21-4,2))+9,2)</f>
+        <v>7.56</v>
+      </c>
+      <c r="I21">
+        <f>ROUND(4/9 *POWER(A21,2) - 9,2)</f>
+        <v>3.02</v>
+      </c>
+      <c r="K21">
+        <f>ROUND(-1/16 * POWER(A21-3,2)-6,2)</f>
+        <v>-6.3</v>
+      </c>
+      <c r="M21">
+        <f>ROUND(1/9 * POWER(A21 - 4,2) - 11,2)</f>
+        <v>-10.84</v>
+      </c>
+      <c r="O21">
+        <f>ROUND(-POWER(A21 - 5,2),2)</f>
+        <v>-0.04</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>5.8</v>
+      </c>
+      <c r="B22">
+        <f>ROUND((-3/49)*POWER(A22,2) + 8, 2)</f>
+        <v>5.94</v>
+      </c>
+      <c r="C22">
+        <f>ROUND(4/49 * POWER(A22,2) + 1,2)</f>
+        <v>3.75</v>
+      </c>
+      <c r="E22">
+        <f>ROUND((-0.75*POWER(A22-4,2)+11),2)</f>
+        <v>8.57</v>
+      </c>
+      <c r="G22">
+        <f>ROUND(-(POWER(A22-4,2))+9,2)</f>
+        <v>5.76</v>
+      </c>
+      <c r="K22">
+        <f>ROUND(-1/16 * POWER(A22-3,2)-6,2)</f>
+        <v>-6.49</v>
+      </c>
+      <c r="M22">
+        <f>ROUND(1/9 * POWER(A22 - 4,2) - 11,2)</f>
+        <v>-10.64</v>
+      </c>
+      <c r="O22">
+        <f>ROUND(-POWER(A22 - 5,2),2)</f>
+        <v>-0.64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>6.8</v>
+      </c>
+      <c r="B23">
+        <f>ROUND((-3/49)*POWER(A23,2) + 8, 2)</f>
+        <v>5.17</v>
+      </c>
+      <c r="C23">
+        <f>ROUND(4/49 * POWER(A23,2) + 1,2)</f>
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="E23">
+        <f>ROUND((-0.75*POWER(A23-4,2)+11),2)</f>
+        <v>5.12</v>
+      </c>
+      <c r="K23">
+        <f>ROUND(-1/16 * POWER(A23-3,2)-6,2)</f>
+        <v>-6.9</v>
+      </c>
+      <c r="M23">
+        <f>ROUND(1/9 * POWER(A23 - 4,2) - 11,2)</f>
+        <v>-10.130000000000001</v>
+      </c>
+      <c r="O23">
+        <f>ROUND(-POWER(A23 - 5,2),2)</f>
+        <v>-3.24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>7</v>
+      </c>
+      <c r="B24">
+        <f>ROUND((-3/49)*POWER(A24,2) + 8, 2)</f>
+        <v>5</v>
+      </c>
+      <c r="C24">
+        <f>ROUND(4/49 * POWER(A24,2) + 1,2)</f>
+        <v>5</v>
+      </c>
+      <c r="K24">
+        <f>ROUND(-1/16 * POWER(A24-3,2)-6,2)</f>
+        <v>-7</v>
+      </c>
+      <c r="M24">
+        <f>ROUND(1/9 * POWER(A24 - 4,2) - 11,2)</f>
+        <v>-10</v>
+      </c>
+      <c r="O24">
+        <f>ROUND(-POWER(A24 - 5,2),2)</f>
+        <v>-4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -17863,11 +21616,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="12"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="42"/>
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
@@ -19173,10 +22926,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C1" s="10"/>
@@ -19187,8 +22940,8 @@
       <c r="H1" s="9"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="17"/>
-      <c r="B2" s="15" t="s">
+      <c r="A2" s="44"/>
+      <c r="B2" s="12" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="10"/>
@@ -19199,8 +22952,8 @@
       <c r="H2" s="9"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="17"/>
-      <c r="B3" s="15" t="s">
+      <c r="A3" s="44"/>
+      <c r="B3" s="12" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="10"/>
@@ -19211,8 +22964,8 @@
       <c r="H3" s="9"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
-      <c r="B4" s="15" t="s">
+      <c r="A4" s="44"/>
+      <c r="B4" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C4" s="10"/>
@@ -19223,8 +22976,8 @@
       <c r="H4" s="9"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
-      <c r="B5" s="15" t="s">
+      <c r="A5" s="44"/>
+      <c r="B5" s="12" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="10"/>
@@ -19235,8 +22988,8 @@
       <c r="H5" s="9"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
-      <c r="B6" s="15" t="s">
+      <c r="A6" s="44"/>
+      <c r="B6" s="12" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="10"/>
@@ -19247,8 +23000,8 @@
       <c r="H6" s="9"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
-      <c r="B7" s="15" t="s">
+      <c r="A7" s="45"/>
+      <c r="B7" s="12" t="s">
         <v>2</v>
       </c>
       <c r="C7" s="10"/>
@@ -20402,11 +24155,11 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="9"/>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="12"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="42"/>
       <c r="E1" s="9"/>
       <c r="F1" s="9"/>
       <c r="G1" s="9"/>
@@ -20419,13 +24172,13 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="14" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="9"/>
@@ -20439,16 +24192,16 @@
       <c r="M2" s="9"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="13" t="s">
         <v>4</v>
       </c>
       <c r="E3" s="9"/>
@@ -20462,14 +24215,14 @@
       <c r="M3" s="9"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
-      <c r="B4" s="19" t="s">
+      <c r="A4" s="44"/>
+      <c r="B4" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="13" t="s">
         <v>6</v>
       </c>
       <c r="E4" s="9"/>
@@ -20483,14 +24236,14 @@
       <c r="M4" s="9"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
-      <c r="B5" s="19" t="s">
+      <c r="A5" s="44"/>
+      <c r="B5" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="13" t="s">
         <v>3</v>
       </c>
       <c r="E5" s="9"/>
@@ -20504,14 +24257,14 @@
       <c r="M5" s="9"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
-      <c r="B6" s="19" t="s">
+      <c r="A6" s="44"/>
+      <c r="B6" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="13" t="s">
         <v>3</v>
       </c>
       <c r="E6" s="9"/>
@@ -20525,14 +24278,14 @@
       <c r="M6" s="9"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
-      <c r="B7" s="19" t="s">
+      <c r="A7" s="44"/>
+      <c r="B7" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="13" t="s">
         <v>2</v>
       </c>
       <c r="E7" s="9"/>
@@ -20546,14 +24299,14 @@
       <c r="M7" s="9"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="17"/>
-      <c r="B8" s="19" t="s">
+      <c r="A8" s="44"/>
+      <c r="B8" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="13" t="s">
         <v>19</v>
       </c>
       <c r="E8" s="9"/>
@@ -20567,14 +24320,14 @@
       <c r="M8" s="9"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="16"/>
-      <c r="B9" s="19" t="s">
+      <c r="A9" s="45"/>
+      <c r="B9" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="13" t="s">
         <v>5</v>
       </c>
       <c r="E9" s="9"/>
@@ -21869,10 +25622,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="49" t="s">
         <v>20</v>
       </c>
       <c r="C1" s="9"/>
@@ -21880,71 +25633,71 @@
       <c r="E1" s="9"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
+      <c r="A2" s="44"/>
+      <c r="B2" s="44"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
+      <c r="A3" s="44"/>
+      <c r="B3" s="44"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17"/>
+      <c r="A4" s="44"/>
+      <c r="B4" s="44"/>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
+      <c r="A5" s="44"/>
+      <c r="B5" s="44"/>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
-      <c r="B6" s="17"/>
+      <c r="A6" s="44"/>
+      <c r="B6" s="44"/>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
-      <c r="B7" s="17"/>
+      <c r="A7" s="44"/>
+      <c r="B7" s="44"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="17"/>
-      <c r="B8" s="17"/>
+      <c r="A8" s="44"/>
+      <c r="B8" s="44"/>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
-      <c r="B9" s="17"/>
+      <c r="A9" s="44"/>
+      <c r="B9" s="44"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
-      <c r="B10" s="17"/>
+      <c r="A10" s="44"/>
+      <c r="B10" s="44"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="16"/>
-      <c r="B11" s="16"/>
+      <c r="A11" s="45"/>
+      <c r="B11" s="45"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
@@ -22976,192 +26729,192 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="21" t="s">
         <v>25</v>
       </c>
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="29">
+      <c r="B2" s="19">
         <v>250</v>
       </c>
-      <c r="C2" s="28">
+      <c r="C2" s="18">
         <f>B2*1024</f>
         <v>256000</v>
       </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="29">
+      <c r="B3" s="19">
         <v>0.7</v>
       </c>
-      <c r="C3" s="28">
+      <c r="C3" s="18">
         <f>B3*1024</f>
         <v>716.8</v>
       </c>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="29">
+      <c r="B4" s="19">
         <v>4.7</v>
       </c>
-      <c r="C4" s="28">
+      <c r="C4" s="18">
         <f>B4*1024</f>
         <v>4812.8</v>
       </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="29">
+      <c r="B5" s="19">
         <v>16</v>
       </c>
-      <c r="C5" s="28">
+      <c r="C5" s="18">
         <f>B5*1024</f>
         <v>16384</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="27"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
+      <c r="A6" s="17"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="27"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="27"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
+      <c r="A8" s="17"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="27"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
+      <c r="A9" s="17"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="27"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="27"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="26"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
+      <c r="A12" s="16"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="26"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="25"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="25"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="25"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="25"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="25"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="25"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
+      <c r="A19" s="15"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="25"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
+      <c r="A20" s="15"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="25"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
+      <c r="A21" s="15"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
     </row>
     <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="25"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
+      <c r="A22" s="15"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
     </row>
     <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
